--- a/BackTest/2020-01-15 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-15 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-8125.096845640001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-8125.096845640001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1912</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1912</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-7791.656745640001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1912</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1912</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-7791.656745640001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1913</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1912</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>-7791.656745640001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1913</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,2965 +616,2459 @@
         <v>-8135.699045640001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1917</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1917</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1917</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1917</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-8135.409045640001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1917</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1918</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1918</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1917</v>
+      </c>
+      <c r="F9" t="n">
+        <v>118.0185</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-8017.390545640001</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1915</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1920</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1915</v>
+      </c>
+      <c r="F10" t="n">
+        <v>105.8787</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-8123.269245640001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1916</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1916</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1916</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1916</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100.8204</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-8022.448845640001</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1921</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1921</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1919</v>
+      </c>
+      <c r="F12" t="n">
+        <v>783.6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-7238.848845640001</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1922</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1922</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1919</v>
+      </c>
+      <c r="F13" t="n">
+        <v>200.3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-7038.548845640001</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1921</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1921</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1921</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1921</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-7045.548845640001</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1921</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1915</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1921</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1915</v>
+      </c>
+      <c r="F15" t="n">
+        <v>290.3826</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-7335.931445640001</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1921</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1921</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1916</v>
+      </c>
+      <c r="F16" t="n">
+        <v>26.2717</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-7309.65974564</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1915</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1915</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1915</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1915</v>
+      </c>
+      <c r="F17" t="n">
+        <v>171.19</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-7480.84974564</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
         <v>1913</v>
       </c>
-      <c r="J7" t="n">
+      <c r="C18" t="n">
         <v>1913</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="D18" t="n">
+        <v>1913</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1912</v>
+      </c>
+      <c r="F18" t="n">
+        <v>385.2912</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-7866.14094564</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1915</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1915</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1915</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1915</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-7865.84094564</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1919</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1919</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1919</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-7865.540945639999</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1920</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1920</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.4896</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-7865.051345639999</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1913</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1913</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1913</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1913</v>
+      </c>
+      <c r="F22" t="n">
+        <v>72.185</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-7937.23634564</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1915</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1915</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1915</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1915</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-7936.93634564</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1912</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1912</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1912</v>
+      </c>
+      <c r="F24" t="n">
+        <v>462.7775</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-8399.713845639999</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1912</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1912</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1912</v>
+      </c>
+      <c r="F25" t="n">
+        <v>234.7332</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-8399.713845639999</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1912</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1912</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1912</v>
+      </c>
+      <c r="F26" t="n">
+        <v>383.9347</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-8399.713845639999</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1912</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1912</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1912</v>
+      </c>
+      <c r="F27" t="n">
+        <v>555.9969</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-8399.713845639999</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1918</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1918</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1918</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1918</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.9442</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-8397.769645639999</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1912</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1912</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1912</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1307.943</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-9705.712645639998</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1912</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1912</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1912</v>
+      </c>
+      <c r="F30" t="n">
+        <v>316.4849</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-9705.712645639998</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1912</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1912</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1912</v>
+      </c>
+      <c r="F31" t="n">
+        <v>435.3431</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-9705.712645639998</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1910</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1912</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1910</v>
+      </c>
+      <c r="F32" t="n">
+        <v>81.7474</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-9787.460045639998</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1911</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1910</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1911</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1910</v>
+      </c>
+      <c r="F33" t="n">
+        <v>200</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-9787.460045639998</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1910</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1910</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1910</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1910</v>
+      </c>
+      <c r="F34" t="n">
+        <v>45.5872</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-9787.460045639998</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1910</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1910</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1910</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1910</v>
+      </c>
+      <c r="F35" t="n">
+        <v>780.5107</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-9787.460045639998</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1910</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1911</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1911</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1910</v>
+      </c>
+      <c r="F36" t="n">
+        <v>474.3792</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-9313.080845639999</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1911</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1908</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1911</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1908</v>
+      </c>
+      <c r="F37" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-9336.720845639999</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1908</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1908</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1908</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1908</v>
+      </c>
+      <c r="F38" t="n">
+        <v>39.0287</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-9336.720845639999</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1912</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1912</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1912</v>
+      </c>
+      <c r="F39" t="n">
+        <v>24.0963</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-9312.624545639999</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1908</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1907</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1908</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1907</v>
+      </c>
+      <c r="F40" t="n">
+        <v>43.9999</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-9356.62444564</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1907</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1907</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1907</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1907</v>
+      </c>
+      <c r="F41" t="n">
+        <v>149.6879</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-9356.62444564</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1907</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1907</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1907</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1907</v>
+      </c>
+      <c r="F42" t="n">
+        <v>67.9859</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-9356.62444564</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1907</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1907</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1907</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1907</v>
+      </c>
+      <c r="F43" t="n">
+        <v>245.2786</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-9356.62444564</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1907</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1906</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1907</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1906</v>
+      </c>
+      <c r="F44" t="n">
+        <v>268.128</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-9624.752445640001</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1906</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1906</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1906</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1906</v>
+      </c>
+      <c r="F45" t="n">
+        <v>250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-9624.752445640001</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1906</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1906</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1906</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1906</v>
+      </c>
+      <c r="F46" t="n">
+        <v>59.634</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-9624.752445640001</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1908</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1908</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1908</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1908</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.2761</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-9623.476345640001</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1908</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1908</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1908</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1908</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-9623.476345640001</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1909</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1910</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1910</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1909</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1241.0857</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-8382.390645640002</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1906</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1906</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1906</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1906</v>
+      </c>
+      <c r="F50" t="n">
+        <v>213.0668</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-8595.457445640002</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1906</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1906</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1906</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1906</v>
+      </c>
+      <c r="F51" t="n">
+        <v>32.037</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-8595.457445640002</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1909</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1909</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1909</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1909</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.8264</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-8594.631045640002</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1907</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1907</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1907</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1907</v>
+      </c>
+      <c r="F53" t="n">
+        <v>528</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-9122.631045640002</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1906</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1906</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1906</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1906</v>
+      </c>
+      <c r="F54" t="n">
+        <v>46.8756</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-9169.506645640002</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1905</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1903</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1905</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1903</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1236</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-10405.50664564</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1909</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1909</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1909</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1909</v>
+      </c>
+      <c r="F56" t="n">
+        <v>100</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-10305.50664564</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1904</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1903</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1904</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1903</v>
+      </c>
+      <c r="F57" t="n">
+        <v>350.7269</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-10656.23354564</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1903</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1903</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1903</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1903</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1136</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-10656.23354564</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1903</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1903</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1903</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1903</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1879</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-10656.23354564</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1903</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1903</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1903</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1903</v>
+      </c>
+      <c r="F60" t="n">
+        <v>239</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-10656.23354564</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1905</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1905</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1905</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1905</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-10655.93354564</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1905</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1907</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1907</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1905</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1346.7748</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-9309.158745640003</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1913</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1914</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1914</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1913</v>
+      </c>
+      <c r="F63" t="n">
+        <v>145.6584</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-9163.500345640003</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1908</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1908</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1908</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1908</v>
+      </c>
+      <c r="F64" t="n">
+        <v>23.661</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-9187.161345640003</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1914</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1914</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1914</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1914</v>
+      </c>
+      <c r="F65" t="n">
+        <v>419.7449</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-8767.416445640003</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1914</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1909</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1914</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1909</v>
+      </c>
+      <c r="F66" t="n">
+        <v>529.7064</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-9297.122845640002</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1910</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1909</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1910</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1909</v>
+      </c>
+      <c r="F67" t="n">
+        <v>340.7713</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-9297.122845640002</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1912</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1912</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1912</v>
+      </c>
+      <c r="F68" t="n">
+        <v>176.6977</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-9120.425145640002</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1915</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1915</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1912</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1086.0777</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-8034.347445640002</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1913</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1913</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1913</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1913</v>
+      </c>
+      <c r="F70" t="n">
+        <v>187.4058</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-8221.753245640002</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1912</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1912</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1912</v>
+      </c>
+      <c r="F71" t="n">
+        <v>27.5783</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-8249.331545640001</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1912</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1912</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1912</v>
+      </c>
+      <c r="F72" t="n">
+        <v>218</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-8249.331545640001</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1916</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1912</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1916</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1912</v>
+      </c>
+      <c r="F73" t="n">
+        <v>283.0848</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-8249.331545640001</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1913</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1912</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1913</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1912</v>
+      </c>
+      <c r="F74" t="n">
+        <v>411.439</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-8249.331545640001</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1910</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1912</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1910</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-9449.331545640001</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1910</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1910</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1910</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1910</v>
+      </c>
+      <c r="F76" t="n">
+        <v>102.7836</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-9449.331545640001</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1910</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1909</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1910</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1909</v>
+      </c>
+      <c r="F77" t="n">
+        <v>225.6969</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-9675.028445640002</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1911</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1911</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1911</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1911</v>
+      </c>
+      <c r="F78" t="n">
+        <v>232.8529</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-9442.175545640002</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1911</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1908</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1911</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1908</v>
+      </c>
+      <c r="F79" t="n">
+        <v>533.8433</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-9976.018845640003</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1909</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1908</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1909</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1908</v>
+      </c>
+      <c r="F80" t="n">
+        <v>269.4545</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-9976.018845640003</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1908</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1905</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1908</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1905</v>
+      </c>
+      <c r="F81" t="n">
+        <v>157.5375</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-10133.55634564</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1908</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1917</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1917</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1917</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1917</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-8135.409045640001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1912</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1917</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1918</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1918</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1917</v>
-      </c>
-      <c r="F9" t="n">
-        <v>118.0185</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-8017.390545640001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1917</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1920</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1915</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1920</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1915</v>
-      </c>
-      <c r="F10" t="n">
-        <v>105.8787</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-8123.269245640001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1918</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1916</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1916</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1916</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1916</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100.8204</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-8022.448845640001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1915</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1921</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1920</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1921</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1919</v>
-      </c>
-      <c r="F12" t="n">
-        <v>783.6</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-7238.848845640001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1916</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1919</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1922</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1922</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1919</v>
-      </c>
-      <c r="F13" t="n">
-        <v>200.3</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-7038.548845640001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1920</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1921</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1921</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1921</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1921</v>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-7045.548845640001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1922</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1921</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1915</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1921</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1915</v>
-      </c>
-      <c r="F15" t="n">
-        <v>290.3826</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-7335.931445640001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1921</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1920</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1921</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1916</v>
-      </c>
-      <c r="F16" t="n">
-        <v>26.2717</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-7309.65974564</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1915</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1915</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1915</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1915</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1915</v>
-      </c>
-      <c r="F17" t="n">
-        <v>171.19</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-7480.84974564</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1920</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1913</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1913</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1913</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1912</v>
-      </c>
-      <c r="F18" t="n">
-        <v>385.2912</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-7866.14094564</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1915</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1915</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1915</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1915</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1915</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-7865.84094564</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1913</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1919</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1919</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1919</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1919</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-7865.540945639999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1915</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1920</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1920</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1920</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1920</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.4896</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-7865.051345639999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1919</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1913</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1913</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1913</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1913</v>
-      </c>
-      <c r="F22" t="n">
-        <v>72.185</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-7937.23634564</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1920</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1915</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1915</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1915</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1915</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-7936.93634564</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1913</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1912</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1912</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1912</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1912</v>
-      </c>
-      <c r="F24" t="n">
-        <v>462.7775</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-8399.713845639999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1915</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1912</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1912</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1912</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1912</v>
-      </c>
-      <c r="F25" t="n">
-        <v>234.7332</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-8399.713845639999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1912</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1912</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1912</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1912</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1912</v>
-      </c>
-      <c r="F26" t="n">
-        <v>383.9347</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-8399.713845639999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1912</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1912</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1912</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1912</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1912</v>
-      </c>
-      <c r="F27" t="n">
-        <v>555.9969</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-8399.713845639999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1912</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1918</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1918</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1918</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1918</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.9442</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-8397.769645639999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1912</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1912</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1912</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1912</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1912</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1307.943</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-9705.712645639998</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1918</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1912</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1912</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1912</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1912</v>
-      </c>
-      <c r="F30" t="n">
-        <v>316.4849</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-9705.712645639998</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1912</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1912</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1912</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1912</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1912</v>
-      </c>
-      <c r="F31" t="n">
-        <v>435.3431</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-9705.712645639998</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1912</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1910</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1912</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1910</v>
-      </c>
-      <c r="F32" t="n">
-        <v>81.7474</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-9787.460045639998</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1912</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1911</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1910</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1911</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1910</v>
-      </c>
-      <c r="F33" t="n">
-        <v>200</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-9787.460045639998</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1910</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>1910</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1910</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1910</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1910</v>
-      </c>
-      <c r="F34" t="n">
-        <v>45.5872</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-9787.460045639998</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1910</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1910</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1910</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1910</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1910</v>
-      </c>
-      <c r="F35" t="n">
-        <v>780.5107</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-9787.460045639998</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1910</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1911</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1911</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1910</v>
-      </c>
-      <c r="F36" t="n">
-        <v>474.3792</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-9313.080845639999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1911</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1908</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1911</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1908</v>
-      </c>
-      <c r="F37" t="n">
-        <v>23.64</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-9336.720845639999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1911</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1908</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1908</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1908</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1908</v>
-      </c>
-      <c r="F38" t="n">
-        <v>39.0287</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-9336.720845639999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1912</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1912</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1912</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1912</v>
-      </c>
-      <c r="F39" t="n">
-        <v>24.0963</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-9312.624545639999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1908</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1907</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1908</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1907</v>
-      </c>
-      <c r="F40" t="n">
-        <v>43.9999</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-9356.62444564</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1907</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1907</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1907</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1907</v>
-      </c>
-      <c r="F41" t="n">
-        <v>149.6879</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-9356.62444564</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1907</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1907</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1907</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1907</v>
-      </c>
-      <c r="F42" t="n">
-        <v>67.9859</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-9356.62444564</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1907</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>1907</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1907</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1907</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1907</v>
-      </c>
-      <c r="F43" t="n">
-        <v>245.2786</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-9356.62444564</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1907</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1906</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1907</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1906</v>
-      </c>
-      <c r="F44" t="n">
-        <v>268.128</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-9624.752445640001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1906</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1906</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1906</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1906</v>
-      </c>
-      <c r="F45" t="n">
-        <v>250</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-9624.752445640001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1906</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1906</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1906</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1906</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1906</v>
-      </c>
-      <c r="F46" t="n">
-        <v>59.634</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-9624.752445640001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1906</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1908</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1908</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1908</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1908</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1.2761</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-9623.476345640001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1908</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1908</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1908</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1908</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.544</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-9623.476345640001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1909</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1910</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1910</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1909</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1241.0857</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-8382.390645640002</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1908</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1906</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1906</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1906</v>
-      </c>
-      <c r="E50" t="n">
-        <v>1906</v>
-      </c>
-      <c r="F50" t="n">
-        <v>213.0668</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-8595.457445640002</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>1906</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1906</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1906</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1906</v>
-      </c>
-      <c r="F51" t="n">
-        <v>32.037</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-8595.457445640002</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>1909</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1909</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1909</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1909</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.8264</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-8594.631045640002</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>1907</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1907</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1907</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1907</v>
-      </c>
-      <c r="F53" t="n">
-        <v>528</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-9122.631045640002</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>1906</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1906</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1906</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1906</v>
-      </c>
-      <c r="F54" t="n">
-        <v>46.8756</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-9169.506645640002</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>1905</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1903</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1905</v>
-      </c>
-      <c r="E55" t="n">
-        <v>1903</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1236</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-10405.50664564</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>1909</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1909</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1909</v>
-      </c>
-      <c r="E56" t="n">
-        <v>1909</v>
-      </c>
-      <c r="F56" t="n">
-        <v>100</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-10305.50664564</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>1904</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1903</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1904</v>
-      </c>
-      <c r="E57" t="n">
-        <v>1903</v>
-      </c>
-      <c r="F57" t="n">
-        <v>350.7269</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-10656.23354564</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>1903</v>
-      </c>
-      <c r="C58" t="n">
-        <v>1903</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1903</v>
-      </c>
-      <c r="E58" t="n">
-        <v>1903</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1136</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-10656.23354564</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>1903</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1903</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1903</v>
-      </c>
-      <c r="E59" t="n">
-        <v>1903</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1879</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-10656.23354564</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>1903</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1903</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1903</v>
-      </c>
-      <c r="E60" t="n">
-        <v>1903</v>
-      </c>
-      <c r="F60" t="n">
-        <v>239</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-10656.23354564</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>1905</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1905</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1905</v>
-      </c>
-      <c r="E61" t="n">
-        <v>1905</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-10655.93354564</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>1905</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1907</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1907</v>
-      </c>
-      <c r="E62" t="n">
-        <v>1905</v>
-      </c>
-      <c r="F62" t="n">
-        <v>1346.7748</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-9309.158745640003</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>1913</v>
-      </c>
-      <c r="C63" t="n">
-        <v>1914</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1914</v>
-      </c>
-      <c r="E63" t="n">
-        <v>1913</v>
-      </c>
-      <c r="F63" t="n">
-        <v>145.6584</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-9163.500345640003</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>1908</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1908</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1908</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1908</v>
-      </c>
-      <c r="F64" t="n">
-        <v>23.661</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-9187.161345640003</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>1914</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1914</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1914</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1914</v>
-      </c>
-      <c r="F65" t="n">
-        <v>419.7449</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-8767.416445640003</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>1914</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1909</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1914</v>
-      </c>
-      <c r="E66" t="n">
-        <v>1909</v>
-      </c>
-      <c r="F66" t="n">
-        <v>529.7064</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-9297.122845640002</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>1910</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1909</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1910</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1909</v>
-      </c>
-      <c r="F67" t="n">
-        <v>340.7713</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-9297.122845640002</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>1912</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1912</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1912</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1912</v>
-      </c>
-      <c r="F68" t="n">
-        <v>176.6977</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-9120.425145640002</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>1912</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1915</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1915</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1912</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1086.0777</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-8034.347445640002</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>1913</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1913</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1913</v>
-      </c>
-      <c r="E70" t="n">
-        <v>1913</v>
-      </c>
-      <c r="F70" t="n">
-        <v>187.4058</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-8221.753245640002</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>1912</v>
-      </c>
-      <c r="C71" t="n">
-        <v>1912</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1912</v>
-      </c>
-      <c r="E71" t="n">
-        <v>1912</v>
-      </c>
-      <c r="F71" t="n">
-        <v>27.5783</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-8249.331545640001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>1912</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1912</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1912</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1912</v>
-      </c>
-      <c r="F72" t="n">
-        <v>218</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-8249.331545640001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>1916</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1912</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1916</v>
-      </c>
-      <c r="E73" t="n">
-        <v>1912</v>
-      </c>
-      <c r="F73" t="n">
-        <v>283.0848</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-8249.331545640001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>1913</v>
-      </c>
-      <c r="C74" t="n">
-        <v>1912</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1913</v>
-      </c>
-      <c r="E74" t="n">
-        <v>1912</v>
-      </c>
-      <c r="F74" t="n">
-        <v>411.439</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-8249.331545640001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>1912</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1910</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1912</v>
-      </c>
-      <c r="E75" t="n">
-        <v>1910</v>
-      </c>
-      <c r="F75" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-9449.331545640001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>1910</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1910</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1910</v>
-      </c>
-      <c r="E76" t="n">
-        <v>1910</v>
-      </c>
-      <c r="F76" t="n">
-        <v>102.7836</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-9449.331545640001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>1910</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1909</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1910</v>
-      </c>
-      <c r="E77" t="n">
-        <v>1909</v>
-      </c>
-      <c r="F77" t="n">
-        <v>225.6969</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-9675.028445640002</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1911</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1911</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1911</v>
-      </c>
-      <c r="E78" t="n">
-        <v>1911</v>
-      </c>
-      <c r="F78" t="n">
-        <v>232.8529</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-9442.175545640002</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>1911</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1908</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1911</v>
-      </c>
-      <c r="E79" t="n">
-        <v>1908</v>
-      </c>
-      <c r="F79" t="n">
-        <v>533.8433</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-9976.018845640003</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1909</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1908</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1909</v>
-      </c>
-      <c r="E80" t="n">
-        <v>1908</v>
-      </c>
-      <c r="F80" t="n">
-        <v>269.4545</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-9976.018845640003</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1908</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1905</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1908</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1905</v>
-      </c>
-      <c r="F81" t="n">
-        <v>157.5375</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-10133.55634564</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3627,12 +3097,12 @@
         <v>-9928.928845640003</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1905</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3666,12 +3136,12 @@
         <v>-9928.928845640003</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1906</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3705,12 +3175,12 @@
         <v>-9928.928845640003</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1906</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3744,12 +3214,12 @@
         <v>-9928.928845640003</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1906</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3783,12 +3253,12 @@
         <v>-9928.928845640003</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1906</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3822,12 +3292,12 @@
         <v>-10430.29874564</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1906</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3861,12 +3331,12 @@
         <v>-10357.06574564</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1905</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3900,12 +3370,12 @@
         <v>-11727.42414564</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1906</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3939,12 +3409,12 @@
         <v>-11727.42414564</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1905</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3978,12 +3448,12 @@
         <v>-11716.99634564</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1905</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4017,12 +3487,12 @@
         <v>-11959.99634564</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1906</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4056,12 +3526,12 @@
         <v>-11946.35774564</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1905</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4095,12 +3565,12 @@
         <v>-11946.35774564</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1906</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4134,12 +3604,12 @@
         <v>-10809.16564564</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1906</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4173,12 +3643,12 @@
         <v>-10809.16564564</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1907</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4212,12 +3682,12 @@
         <v>-10809.16564564</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1907</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4251,12 +3721,12 @@
         <v>-10808.16564564</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1907</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4290,12 +3760,12 @@
         <v>-11103.16564564</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1909</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4329,12 +3799,12 @@
         <v>-9675.884045640001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1907</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4368,12 +3838,12 @@
         <v>-9675.884045640001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1910</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4407,12 +3877,12 @@
         <v>-9639.857445640002</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1910</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4446,12 +3916,12 @@
         <v>-9639.857445640002</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1911</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4485,12 +3955,12 @@
         <v>-9639.857445640002</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1911</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4524,12 +3994,12 @@
         <v>-7899.033145640002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1911</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4563,12 +4033,12 @@
         <v>-8458.374645640002</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1921</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4602,12 +4072,12 @@
         <v>-10197.28274564</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1919</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4641,12 +4111,12 @@
         <v>-10197.28274564</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1918</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4680,12 +4150,12 @@
         <v>-10197.28274564</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1918</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4719,12 +4189,12 @@
         <v>-10197.28274564</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>1913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1918</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4761,9 +4231,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4800,9 +4268,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4839,9 +4305,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4878,9 +4342,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4917,9 +4379,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4956,9 +4416,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4995,9 +4453,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5034,9 +4490,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5073,9 +4527,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5112,9 +4564,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5151,9 +4601,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5190,9 +4638,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5229,9 +4675,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5268,9 +4712,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5307,9 +4749,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5346,9 +4786,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5385,9 +4823,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5424,9 +4860,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5463,9 +4897,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5502,9 +4934,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5541,9 +4971,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5580,9 +5008,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5619,9 +5045,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5658,9 +5082,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5697,9 +5119,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5736,9 +5156,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5775,9 +5193,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5811,14 +5227,10 @@
         <v>-10675.64111499</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1915</v>
-      </c>
-      <c r="J138" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5855,9 +5267,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5894,9 +5304,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5933,9 +5341,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5969,14 +5375,10 @@
         <v>-8526.803314990004</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1917</v>
-      </c>
-      <c r="J142" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6013,9 +5415,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6052,9 +5452,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6091,9 +5489,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6130,9 +5526,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6169,9 +5563,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6208,9 +5600,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6247,9 +5637,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6286,9 +5674,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6325,9 +5711,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6361,14 +5745,10 @@
         <v>-8131.880314990004</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1924</v>
-      </c>
-      <c r="J152" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6402,14 +5782,10 @@
         <v>-7930.905314990004</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1924</v>
-      </c>
-      <c r="J153" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6443,14 +5819,10 @@
         <v>-7969.964414990004</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1928</v>
-      </c>
-      <c r="J154" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6487,9 +5859,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6523,14 +5893,10 @@
         <v>-8146.064414990004</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1925</v>
-      </c>
-      <c r="J156" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6564,14 +5930,10 @@
         <v>-7995.967614990004</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1920</v>
-      </c>
-      <c r="J157" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6605,14 +5967,10 @@
         <v>-7995.967614990004</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1921</v>
-      </c>
-      <c r="J158" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6646,14 +6004,10 @@
         <v>-7995.667614990004</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1921</v>
-      </c>
-      <c r="J159" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6687,14 +6041,10 @@
         <v>-8911.001914990004</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1925</v>
-      </c>
-      <c r="J160" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6728,14 +6078,10 @@
         <v>-8910.701914990004</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1920</v>
-      </c>
-      <c r="J161" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6769,14 +6115,10 @@
         <v>-9158.195714990004</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1926</v>
-      </c>
-      <c r="J162" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6813,9 +6155,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6849,14 +6189,10 @@
         <v>-9158.195714990004</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1921</v>
-      </c>
-      <c r="J164" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6890,14 +6226,10 @@
         <v>-6442.852814990005</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1921</v>
-      </c>
-      <c r="J165" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6931,14 +6263,10 @@
         <v>-6442.852814990005</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1925</v>
-      </c>
-      <c r="J166" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6972,14 +6300,10 @@
         <v>-6442.852814990005</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1925</v>
-      </c>
-      <c r="J167" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7013,14 +6337,10 @@
         <v>-6442.852814990005</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1925</v>
-      </c>
-      <c r="J168" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7054,14 +6374,10 @@
         <v>-6442.852814990005</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1925</v>
-      </c>
-      <c r="J169" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7095,14 +6411,10 @@
         <v>-6442.852814990005</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1925</v>
-      </c>
-      <c r="J170" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7136,14 +6448,10 @@
         <v>-4408.181014990005</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1925</v>
-      </c>
-      <c r="J171" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7177,14 +6485,10 @@
         <v>-4412.861014990005</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1932</v>
-      </c>
-      <c r="J172" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7218,14 +6522,10 @@
         <v>-4079.822215200005</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1930</v>
-      </c>
-      <c r="J173" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7259,14 +6559,10 @@
         <v>-4270.652715200005</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1933</v>
-      </c>
-      <c r="J174" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7300,14 +6596,10 @@
         <v>-4287.275815200005</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1926</v>
-      </c>
-      <c r="J175" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7341,14 +6633,10 @@
         <v>-4287.275815200005</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1925</v>
-      </c>
-      <c r="J176" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7382,14 +6670,10 @@
         <v>-4287.275815200005</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1925</v>
-      </c>
-      <c r="J177" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7423,14 +6707,10 @@
         <v>-4287.275815200005</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1925</v>
-      </c>
-      <c r="J178" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7464,14 +6744,10 @@
         <v>-4287.275815200005</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1925</v>
-      </c>
-      <c r="J179" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7505,14 +6781,10 @@
         <v>-4287.275815200005</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1925</v>
-      </c>
-      <c r="J180" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7546,14 +6818,10 @@
         <v>-4287.275815200005</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1925</v>
-      </c>
-      <c r="J181" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7587,14 +6855,10 @@
         <v>-4287.275815200005</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1925</v>
-      </c>
-      <c r="J182" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7628,14 +6892,10 @@
         <v>-3736.975815200005</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1925</v>
-      </c>
-      <c r="J183" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7669,14 +6929,10 @@
         <v>-4010.619715200005</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1927</v>
-      </c>
-      <c r="J184" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7710,14 +6966,10 @@
         <v>-4000.619715200005</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1925</v>
-      </c>
-      <c r="J185" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7754,9 +7006,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7793,9 +7043,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7829,14 +7077,10 @@
         <v>-4421.394015200005</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1928</v>
-      </c>
-      <c r="J188" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7870,14 +7114,10 @@
         <v>-4421.094015200005</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1925</v>
-      </c>
-      <c r="J189" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7911,14 +7151,10 @@
         <v>-4561.301415200005</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1927</v>
-      </c>
-      <c r="J190" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7952,14 +7188,10 @@
         <v>-4905.822615200005</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1925</v>
-      </c>
-      <c r="J191" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7993,14 +7225,10 @@
         <v>-4800.092315200005</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>1922</v>
-      </c>
-      <c r="J192" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8037,9 +7265,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8076,9 +7302,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8115,9 +7339,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8154,9 +7376,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8193,9 +7413,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8229,14 +7447,10 @@
         <v>-4136.990615200005</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1925</v>
-      </c>
-      <c r="J198" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8273,9 +7487,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8312,9 +7524,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8348,14 +7558,10 @@
         <v>-4473.611415200005</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1926</v>
-      </c>
-      <c r="J201" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8389,14 +7595,10 @@
         <v>-4473.611415200005</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>1924</v>
-      </c>
-      <c r="J202" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8430,14 +7632,10 @@
         <v>-4473.611415200005</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>1924</v>
-      </c>
-      <c r="J203" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8471,14 +7669,10 @@
         <v>-4473.611415200005</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>1924</v>
-      </c>
-      <c r="J204" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8515,9 +7709,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8554,9 +7746,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8593,9 +7783,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8629,14 +7817,10 @@
         <v>-4615.212115200005</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>1925</v>
-      </c>
-      <c r="J208" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8670,14 +7854,10 @@
         <v>-4571.850015200005</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>1924</v>
-      </c>
-      <c r="J209" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8711,14 +7891,10 @@
         <v>-4632.998715200005</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="n">
-        <v>1927</v>
-      </c>
-      <c r="J210" t="n">
-        <v>1913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8755,9 +7931,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8794,9 +7968,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8833,9 +8005,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8872,9 +8042,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8911,9 +8079,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8950,9 +8116,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8989,9 +8153,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9028,9 +8190,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9067,9 +8227,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9106,9 +8264,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9145,9 +8301,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9184,9 +8338,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9223,9 +8375,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9262,9 +8412,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9301,9 +8449,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9340,9 +8486,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9379,9 +8523,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9418,9 +8560,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9457,9 +8597,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9496,9 +8634,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9535,9 +8671,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9574,9 +8708,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9613,9 +8745,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9649,20 +8779,16 @@
         <v>-9305.380998130004</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>1913</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
@@ -9688,17 +8814,11 @@
         <v>-9205.380998130004</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9727,17 +8847,11 @@
         <v>-9192.409698130004</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9766,17 +8880,11 @@
         <v>-10335.5891853</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9805,17 +8913,11 @@
         <v>-10271.35528530001</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9844,17 +8946,11 @@
         <v>-10271.35528530001</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9886,14 +8982,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9925,14 +9015,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9964,14 +9048,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -10003,14 +9081,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -10042,14 +9114,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10081,14 +9147,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10120,14 +9180,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10159,14 +9213,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10198,14 +9246,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10237,14 +9279,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10276,14 +9312,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10312,17 +9342,11 @@
         <v>-8340.094512410005</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10351,17 +9375,11 @@
         <v>-8413.751712410005</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10393,14 +9411,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10429,17 +9441,11 @@
         <v>-6544.614312410005</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10468,17 +9474,11 @@
         <v>-7265.780612410005</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10507,17 +9507,11 @@
         <v>-8553.381412410004</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10546,17 +9540,11 @@
         <v>-8553.381412410004</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10585,17 +9573,11 @@
         <v>-8553.381412410004</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10624,17 +9606,11 @@
         <v>-8553.381412410004</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10663,17 +9639,11 @@
         <v>-8493.381412410004</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10702,17 +9672,11 @@
         <v>-6970.087012410005</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10741,17 +9705,11 @@
         <v>-6970.087012410005</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10780,17 +9738,11 @@
         <v>-7539.348912410005</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10819,17 +9771,11 @@
         <v>-5608.835512410005</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10858,19 +9804,13 @@
         <v>-5973.618612410005</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>1913</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
-        <v>1.017477783585991</v>
+        <v>1</v>
       </c>
       <c r="M265" t="inlineStr"/>
     </row>
@@ -11128,7 +10068,7 @@
         <v>-3894.319112410005</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -11194,7 +10134,7 @@
         <v>-4082.914012410004</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -11359,7 +10299,7 @@
         <v>-1641.908712410004</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11458,7 +10398,7 @@
         <v>-2013.287912410005</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11491,7 +10431,7 @@
         <v>-1922.352712410005</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11524,7 +10464,7 @@
         <v>-2720.520712410005</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11557,7 +10497,7 @@
         <v>-252.6629124100045</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11590,7 +10530,7 @@
         <v>-594.5078124100046</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11623,7 +10563,7 @@
         <v>-511.3105124100046</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11656,7 +10596,7 @@
         <v>5406.792487589995</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11689,7 +10629,7 @@
         <v>6412.528487589995</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11722,7 +10662,7 @@
         <v>6252.796487589995</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11755,7 +10695,7 @@
         <v>9760.573787589996</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11788,7 +10728,7 @@
         <v>7783.654687589996</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11821,7 +10761,7 @@
         <v>6123.997187589996</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11854,7 +10794,7 @@
         <v>8021.368987589995</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11887,7 +10827,7 @@
         <v>8644.151787589995</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11920,7 +10860,7 @@
         <v>8079.674487589995</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11953,7 +10893,7 @@
         <v>7980.674487589995</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11986,7 +10926,7 @@
         <v>-579.8215124100043</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -12019,7 +10959,7 @@
         <v>-579.8215124100043</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -12052,7 +10992,7 @@
         <v>-579.8215124100043</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -12151,7 +11091,7 @@
         <v>1954.150687589996</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12217,7 +11157,7 @@
         <v>1914.721287589996</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12250,7 +11190,7 @@
         <v>1916.721287589996</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12283,7 +11223,7 @@
         <v>-244.8715124100042</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12316,7 +11256,7 @@
         <v>-244.8715124100042</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12349,7 +11289,7 @@
         <v>-180.6392124100042</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12382,7 +11322,7 @@
         <v>-258.9775124100042</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12415,7 +11355,7 @@
         <v>-258.9775124100042</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12448,7 +11388,7 @@
         <v>-253.1741124100042</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12481,7 +11421,7 @@
         <v>538.9955875899958</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12514,7 +11454,7 @@
         <v>682.5372875899958</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12547,7 +11487,7 @@
         <v>782.7972875899958</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12580,7 +11520,7 @@
         <v>371.6611875899958</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12613,7 +11553,7 @@
         <v>481.6611875899958</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12646,7 +11586,7 @@
         <v>-26.29881241000419</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12679,7 +11619,7 @@
         <v>-1507.107912410004</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12712,7 +11652,7 @@
         <v>-2511.650312410005</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12745,7 +11685,7 @@
         <v>-3039.082612410004</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12844,7 +11784,7 @@
         <v>-3062.723812410004</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12877,7 +11817,7 @@
         <v>-4945.791212410004</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12910,7 +11850,7 @@
         <v>-4945.531212410004</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12943,7 +11883,7 @@
         <v>-4991.400612410003</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -13042,7 +11982,7 @@
         <v>-5755.830812410004</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -13075,7 +12015,7 @@
         <v>-5587.740812410004</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -13108,7 +12048,7 @@
         <v>-6182.810012410004</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13141,7 +12081,7 @@
         <v>-6084.230212410003</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13174,7 +12114,7 @@
         <v>-6040.841012410004</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13207,7 +12147,7 @@
         <v>-6503.660812410004</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13240,7 +12180,7 @@
         <v>-6503.060812410004</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13273,7 +12213,7 @@
         <v>-6502.169312410004</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13306,7 +12246,7 @@
         <v>-6931.154112410004</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13339,7 +12279,7 @@
         <v>-6764.571712410004</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13372,7 +12312,7 @@
         <v>-5931.550112410004</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13405,7 +12345,7 @@
         <v>-5931.550112410004</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13438,7 +12378,7 @@
         <v>-5931.550112410004</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13471,7 +12411,7 @@
         <v>-5933.350112410004</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13504,7 +12444,7 @@
         <v>-5933.350112410004</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13537,7 +12477,7 @@
         <v>-5933.350112410004</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13570,7 +12510,7 @@
         <v>-5931.550112410004</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13603,7 +12543,7 @@
         <v>-5631.550112410004</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13636,7 +12576,7 @@
         <v>-5964.649112410004</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13669,7 +12609,7 @@
         <v>-5196.534429540004</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13702,7 +12642,7 @@
         <v>-5682.238629540004</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13735,7 +12675,7 @@
         <v>-5699.301629540004</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13768,7 +12708,7 @@
         <v>-795178.19012954</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13801,7 +12741,7 @@
         <v>-795178.19012954</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13999,7 +12939,7 @@
         <v>-799974.9591295401</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -14032,7 +12972,7 @@
         <v>-799974.9591295401</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -14065,7 +13005,7 @@
         <v>-801034.8837295402</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -14098,7 +13038,7 @@
         <v>-807527.3097295401</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14131,7 +13071,7 @@
         <v>-807421.8127295402</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14164,7 +13104,7 @@
         <v>-807783.3968295401</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -14197,7 +13137,7 @@
         <v>-807783.3968295401</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14230,7 +13170,7 @@
         <v>-807783.3968295401</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -32655,6 +31595,6 @@
       <c r="M925" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-15 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3058,17 +3058,11 @@
         <v>-10133.55634564</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1908</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3097,17 +3091,11 @@
         <v>-9928.928845640003</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1905</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3136,17 +3124,11 @@
         <v>-9928.928845640003</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1906</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3175,17 +3157,11 @@
         <v>-9928.928845640003</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1906</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3214,17 +3190,11 @@
         <v>-9928.928845640003</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1906</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3253,17 +3223,11 @@
         <v>-9928.928845640003</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1906</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3292,17 +3256,11 @@
         <v>-10430.29874564</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1906</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3331,17 +3289,11 @@
         <v>-10357.06574564</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1905</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3370,17 +3322,11 @@
         <v>-11727.42414564</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1906</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3409,17 +3355,11 @@
         <v>-11727.42414564</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1905</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3448,17 +3388,11 @@
         <v>-11716.99634564</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1905</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3487,17 +3421,11 @@
         <v>-11959.99634564</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1906</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3526,17 +3454,11 @@
         <v>-11946.35774564</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1905</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3565,17 +3487,11 @@
         <v>-11946.35774564</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1906</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3604,17 +3520,11 @@
         <v>-10809.16564564</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1906</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3643,17 +3553,11 @@
         <v>-10809.16564564</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1907</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3682,17 +3586,11 @@
         <v>-10809.16564564</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1907</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3721,17 +3619,11 @@
         <v>-10808.16564564</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1907</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3760,17 +3652,11 @@
         <v>-11103.16564564</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1909</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3799,17 +3685,11 @@
         <v>-9675.884045640001</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1907</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3838,17 +3718,11 @@
         <v>-9675.884045640001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1910</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3877,17 +3751,11 @@
         <v>-9639.857445640002</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1910</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3916,17 +3784,11 @@
         <v>-9639.857445640002</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1911</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3955,17 +3817,11 @@
         <v>-9639.857445640002</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1911</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3994,17 +3850,11 @@
         <v>-7899.033145640002</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1911</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4033,17 +3883,11 @@
         <v>-8458.374645640002</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1921</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4072,17 +3916,11 @@
         <v>-10197.28274564</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1919</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4111,17 +3949,11 @@
         <v>-10197.28274564</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1918</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4150,17 +3982,11 @@
         <v>-10197.28274564</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1918</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4189,17 +4015,11 @@
         <v>-10197.28274564</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1918</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4232,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4269,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4306,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4343,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4380,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4417,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4454,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4491,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4528,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4565,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4602,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4639,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4676,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4713,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4750,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4787,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4824,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4861,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4898,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4935,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5009,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5046,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5083,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5120,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5157,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5194,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5231,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5268,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5305,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5342,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5379,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5416,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5453,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5490,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5527,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5564,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5601,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5638,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5675,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5712,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5749,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5786,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5823,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5860,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5897,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5934,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5971,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6008,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6045,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6082,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6119,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6156,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6230,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6267,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6304,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6341,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6378,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6415,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6452,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6489,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6526,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6563,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6600,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6637,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6674,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6711,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6748,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6785,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6822,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6859,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6896,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6933,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6970,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7007,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7044,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7081,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7118,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7155,11 +6659,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7192,11 +6692,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7229,11 +6725,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7266,11 +6758,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7303,11 +6791,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7340,11 +6824,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7377,11 +6857,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +6890,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7451,11 +6923,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7488,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7525,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7562,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7599,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7636,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7673,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7710,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7747,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7784,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7821,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7858,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7895,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7932,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7969,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8006,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8043,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8080,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8117,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8154,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8191,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8228,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8265,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8302,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8339,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8376,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8413,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8450,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8487,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8524,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8561,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8598,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8672,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8709,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8746,11 +8078,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8779,16 +8107,14 @@
         <v>-9305.380998130004</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
       <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
@@ -8979,7 +8305,7 @@
         <v>-10435.40878530001</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9012,7 +8338,7 @@
         <v>-9650.845085300005</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9045,7 +8371,7 @@
         <v>-9650.845085300005</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9078,7 +8404,7 @@
         <v>-9934.502985300005</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9111,7 +8437,7 @@
         <v>-8219.103685300004</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9144,7 +8470,7 @@
         <v>-7346.099785300004</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9177,7 +8503,7 @@
         <v>-7341.099785300004</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9210,7 +8536,7 @@
         <v>-5360.375585300004</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9243,7 +8569,7 @@
         <v>-6385.786985300004</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9276,7 +8602,7 @@
         <v>-8486.340985300005</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9309,7 +8635,7 @@
         <v>-8486.340985300005</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9408,7 +8734,7 @@
         <v>-8413.751712410005</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9804,7 +9130,7 @@
         <v>-5973.618612410005</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9837,7 +9163,7 @@
         <v>-5973.618612410005</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9870,7 +9196,7 @@
         <v>-6472.120112410005</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9903,7 +9229,7 @@
         <v>-6471.820112410005</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9936,7 +9262,7 @@
         <v>-6471.820112410005</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9969,7 +9295,7 @@
         <v>-3633.641812410005</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10002,7 +9328,7 @@
         <v>-3756.641812410005</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10035,7 +9361,7 @@
         <v>-3922.129612410005</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10068,7 +9394,7 @@
         <v>-3894.319112410005</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10101,7 +9427,7 @@
         <v>-3894.059112410005</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10167,7 +9493,7 @@
         <v>-4197.569712410004</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10200,7 +9526,7 @@
         <v>-1244.807412410004</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10233,7 +9559,7 @@
         <v>-1244.807412410004</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10266,7 +9592,7 @@
         <v>-1774.408712410004</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10332,7 +9658,7 @@
         <v>-1641.908712410004</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10365,7 +9691,7 @@
         <v>-2013.287912410005</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10695,7 +10021,7 @@
         <v>9760.573787589996</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10728,7 +10054,7 @@
         <v>7783.654687589996</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10761,7 +10087,7 @@
         <v>6123.997187589996</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10794,7 +10120,7 @@
         <v>8021.368987589995</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10827,7 +10153,7 @@
         <v>8644.151787589995</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10860,7 +10186,7 @@
         <v>8079.674487589995</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10893,7 +10219,7 @@
         <v>7980.674487589995</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10926,7 +10252,7 @@
         <v>-579.8215124100043</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10959,7 +10285,7 @@
         <v>-579.8215124100043</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10992,7 +10318,7 @@
         <v>-579.8215124100043</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11025,7 +10351,7 @@
         <v>-579.8215124100043</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11058,7 +10384,7 @@
         <v>2064.949187589996</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11124,7 +10450,7 @@
         <v>1996.949687589996</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11289,7 +10615,7 @@
         <v>-180.6392124100042</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11322,7 +10648,7 @@
         <v>-258.9775124100042</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11355,7 +10681,7 @@
         <v>-258.9775124100042</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11388,7 +10714,7 @@
         <v>-253.1741124100042</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11718,7 +11044,7 @@
         <v>-3039.082612410004</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11751,7 +11077,7 @@
         <v>-2805.008612410004</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11784,7 +11110,7 @@
         <v>-3062.723812410004</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11817,7 +11143,7 @@
         <v>-4945.791212410004</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11850,7 +11176,7 @@
         <v>-4945.531212410004</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11883,7 +11209,7 @@
         <v>-4991.400612410003</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11916,7 +11242,7 @@
         <v>-4784.774312410003</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11949,7 +11275,7 @@
         <v>-4786.718212410004</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12015,7 +11341,7 @@
         <v>-5587.740812410004</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12048,7 +11374,7 @@
         <v>-6182.810012410004</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12081,7 +11407,7 @@
         <v>-6084.230212410003</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12114,7 +11440,7 @@
         <v>-6040.841012410004</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12147,7 +11473,7 @@
         <v>-6503.660812410004</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12180,7 +11506,7 @@
         <v>-6503.060812410004</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12213,7 +11539,7 @@
         <v>-6502.169312410004</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12246,7 +11572,7 @@
         <v>-6931.154112410004</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12279,7 +11605,7 @@
         <v>-6764.571712410004</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12312,7 +11638,7 @@
         <v>-5931.550112410004</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12345,7 +11671,7 @@
         <v>-5931.550112410004</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12378,7 +11704,7 @@
         <v>-5931.550112410004</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12411,7 +11737,7 @@
         <v>-5933.350112410004</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12444,7 +11770,7 @@
         <v>-5933.350112410004</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12477,7 +11803,7 @@
         <v>-5933.350112410004</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12510,7 +11836,7 @@
         <v>-5931.550112410004</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12543,7 +11869,7 @@
         <v>-5631.550112410004</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12576,7 +11902,7 @@
         <v>-5964.649112410004</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12609,7 +11935,7 @@
         <v>-5196.534429540004</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12642,7 +11968,7 @@
         <v>-5682.238629540004</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12708,7 +12034,7 @@
         <v>-795178.19012954</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12741,7 +12067,7 @@
         <v>-795178.19012954</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12939,7 +12265,7 @@
         <v>-799974.9591295401</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12972,7 +12298,7 @@
         <v>-799974.9591295401</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13005,7 +12331,7 @@
         <v>-801034.8837295402</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13038,7 +12364,7 @@
         <v>-807527.3097295401</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13071,7 +12397,7 @@
         <v>-807421.8127295402</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13104,7 +12430,7 @@
         <v>-807783.3968295401</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13137,7 +12463,7 @@
         <v>-807783.3968295401</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13170,7 +12496,7 @@
         <v>-807783.3968295401</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13764,7 +13090,7 @@
         <v>-803827.7018295402</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13797,7 +13123,7 @@
         <v>-803939.9444295402</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13896,7 +13222,7 @@
         <v>-804109.7030295401</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13929,7 +13255,7 @@
         <v>-803767.6129295401</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13962,7 +13288,7 @@
         <v>-803767.6129295401</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13995,7 +13321,7 @@
         <v>-803369.7058295402</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14028,7 +13354,7 @@
         <v>-803369.7058295402</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14061,7 +13387,7 @@
         <v>-803550.3944295401</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14193,7 +13519,7 @@
         <v>-800743.9147295401</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14424,7 +13750,7 @@
         <v>-800423.9085295401</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14457,7 +13783,7 @@
         <v>-800453.9085295401</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14490,7 +13816,7 @@
         <v>-799700.7144295401</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14523,7 +13849,7 @@
         <v>-799700.7144295401</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14556,7 +13882,7 @@
         <v>-799700.7144295401</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -25380,10 +24706,14 @@
         <v>-835221.1137127604</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>1971</v>
+      </c>
+      <c r="J737" t="n">
+        <v>1971</v>
+      </c>
       <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
@@ -25416,8 +24746,14 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>1971</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25449,8 +24785,14 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>1971</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25512,10 +24854,14 @@
         <v>-835058.3605291103</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>1974</v>
+      </c>
+      <c r="J741" t="n">
+        <v>1974</v>
+      </c>
       <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
@@ -25545,11 +24891,19 @@
         <v>-835033.1626291103</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>1975</v>
+      </c>
+      <c r="J742" t="n">
+        <v>1974</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25578,11 +24932,19 @@
         <v>-835239.4347291102</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>1979</v>
+      </c>
+      <c r="J743" t="n">
+        <v>1974</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25611,10 +24973,14 @@
         <v>-835068.6676291102</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>1978</v>
+      </c>
+      <c r="J744" t="n">
+        <v>1978</v>
+      </c>
       <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
@@ -25644,11 +25010,19 @@
         <v>-835168.6676291102</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>1982</v>
+      </c>
+      <c r="J745" t="n">
+        <v>1978</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25680,8 +25054,14 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>1978</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25776,11 +25156,17 @@
         <v>-836419.2375755302</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>1979</v>
+      </c>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25813,7 +25199,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25846,7 +25236,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25879,7 +25273,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25912,7 +25310,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25945,7 +25347,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25978,7 +25384,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26011,7 +25421,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26044,7 +25458,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26077,7 +25495,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26110,7 +25532,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26143,7 +25569,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26176,7 +25606,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26209,7 +25643,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26242,7 +25680,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26275,7 +25717,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26308,7 +25754,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26341,7 +25791,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26374,7 +25828,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26407,7 +25865,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26440,7 +25902,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26473,7 +25939,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26506,7 +25976,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26539,7 +26013,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26572,7 +26050,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26605,7 +26087,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26638,7 +26124,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26671,7 +26161,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26704,7 +26198,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26737,7 +26235,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26770,7 +26272,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26803,7 +26309,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26836,7 +26346,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26869,7 +26383,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26902,7 +26420,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26935,7 +26457,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26968,7 +26494,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27001,7 +26531,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27034,7 +26568,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27067,7 +26605,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27100,7 +26642,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27133,7 +26679,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27166,7 +26716,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27199,7 +26753,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27232,7 +26790,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27265,7 +26827,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27298,7 +26864,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27331,7 +26901,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27364,7 +26938,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27397,7 +26975,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27430,7 +27012,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27463,7 +27049,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27496,7 +27086,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27529,7 +27123,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27562,7 +27160,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27595,7 +27197,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27628,7 +27234,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27661,7 +27271,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27694,7 +27308,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27727,7 +27345,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27760,7 +27382,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27793,7 +27419,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27826,7 +27456,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27859,7 +27493,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27892,7 +27530,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27925,7 +27567,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27958,7 +27604,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27991,7 +27641,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28024,7 +27678,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -28057,7 +27715,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -28090,7 +27752,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28123,7 +27789,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -28156,7 +27826,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -28189,7 +27863,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -28222,7 +27900,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -28255,7 +27937,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -28288,7 +27974,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -28321,7 +28011,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28354,7 +28048,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28387,7 +28085,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28420,7 +28122,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28453,7 +28159,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28486,7 +28196,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28519,7 +28233,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28552,7 +28270,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28585,7 +28307,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28618,7 +28344,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28651,7 +28381,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28684,7 +28418,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28717,7 +28455,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28750,7 +28492,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28779,11 +28525,17 @@
         <v>-853692.5049282101</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>1981</v>
+      </c>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28812,11 +28564,17 @@
         <v>-854360.5414282101</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>1978</v>
+      </c>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28845,11 +28603,17 @@
         <v>-856102.0802282101</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>1977</v>
+      </c>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28878,11 +28642,17 @@
         <v>-858512.0847282101</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>1976</v>
+      </c>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28911,11 +28681,17 @@
         <v>-858512.0847282101</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>1974</v>
+      </c>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28944,11 +28720,17 @@
         <v>-858512.0847282101</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>1974</v>
+      </c>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28977,11 +28759,17 @@
         <v>-857988.6932282101</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>1974</v>
+      </c>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29010,11 +28798,17 @@
         <v>-857988.6932282101</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>1975</v>
+      </c>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -29047,7 +28841,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -29076,11 +28874,17 @@
         <v>-857488.6932282101</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>1976</v>
+      </c>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -29113,7 +28917,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -29146,7 +28954,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -29179,7 +28991,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -29212,7 +29028,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -29245,7 +29065,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -29278,7 +29102,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29311,7 +29139,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29344,7 +29176,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29377,7 +29213,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29410,7 +29250,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29443,7 +29287,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29476,7 +29324,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29509,7 +29361,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29542,7 +29398,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29575,7 +29435,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29608,7 +29472,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29641,7 +29509,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29674,7 +29546,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29707,7 +29583,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29740,7 +29620,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29773,7 +29657,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29806,7 +29694,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29839,7 +29731,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29872,7 +29768,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29905,7 +29805,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29938,7 +29842,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29971,7 +29879,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -30004,7 +29916,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -30037,7 +29953,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -30070,7 +29990,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -30103,7 +30027,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -30136,7 +30064,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -30169,7 +30101,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -30202,7 +30138,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -30235,7 +30175,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -30268,7 +30212,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30301,7 +30249,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30334,7 +30286,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30367,7 +30323,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30400,7 +30360,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30433,7 +30397,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30466,7 +30434,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30499,7 +30471,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30532,7 +30508,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30565,7 +30545,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30598,7 +30582,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30631,7 +30619,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30664,7 +30656,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30697,7 +30693,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30730,7 +30730,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30763,7 +30767,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30796,7 +30804,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30829,7 +30841,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30862,7 +30878,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30895,7 +30915,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30928,7 +30952,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30961,7 +30989,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30994,7 +31026,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -31027,7 +31063,11 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -31060,7 +31100,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31093,7 +31137,11 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31126,7 +31174,11 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31159,7 +31211,11 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31192,7 +31248,11 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31225,7 +31285,11 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31258,7 +31322,11 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31291,7 +31359,11 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31324,7 +31396,11 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31357,7 +31433,11 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31390,7 +31470,11 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31423,7 +31507,11 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31456,7 +31544,11 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31489,7 +31581,11 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31522,7 +31618,11 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31555,7 +31655,11 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -31588,13 +31692,17 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
       <c r="M925" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>